--- a/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_架构组.xlsx
+++ b/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>LTS 定时器</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1925</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1353,7 +1356,8 @@
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
     <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
-    <col min="19" max="20" width="12" style="49" customWidth="1"/>
+    <col min="19" max="19" width="26.625" style="49" customWidth="1"/>
+    <col min="20" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
     <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
     <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
@@ -1479,7 +1483,9 @@
       <c r="P2" s="62"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="68"/>
+      <c r="S2" s="68" t="s">
+        <v>79</v>
+      </c>
       <c r="T2" s="68"/>
       <c r="U2" s="56"/>
       <c r="V2" s="67" t="s">
@@ -5591,6 +5597,9 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
